--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-381451.0367418533</v>
+        <v>-355751.9976517841</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17410625.23004074</v>
+        <v>16765245.16155729</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9088619.650901269</v>
+        <v>9126045.794224586</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>148.3169525775675</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>113.1567063685765</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -865,10 +865,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>50.65084074865278</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>169.4996621905625</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>237.2177930475864</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>379.2498707599663</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.58216279976261</v>
+        <v>81.01098805494614</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>260.7202811465358</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>121.8503807409403</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1297,16 +1297,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>26.41040541581665</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>90.4118575522625</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1376,16 +1376,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>71.18130377952957</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>184.9973070855318</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>18.05677735225787</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>153.2006427344286</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791315919</v>
+        <v>0.4126214791300162</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>39.5975448024402</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>85.55329631630762</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629692</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791331984</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>56.72042565247698</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2087,7 +2087,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932891</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735226201</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>249.4112747763479</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2476,13 +2476,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>60.80118788412211</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,7 +2725,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413112</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496634</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385524</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545403</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F38" t="n">
-        <v>407.3530449561368</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242213</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724684</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925389</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169443</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174058</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267642</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043295</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X38" t="n">
-        <v>398.7153284477349</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245956</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
-        <v>147.983502531745</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730226</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856831</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432643</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934369</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762358</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185818</v>
+        <v>227.1849416185819</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006782</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095264</v>
+        <v>267.8502427095265</v>
       </c>
       <c r="W40" t="n">
-        <v>253.0704300308239</v>
+        <v>253.070430030824</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811742</v>
+        <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402853</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3806,7 +3806,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245954</v>
       </c>
     </row>
     <row r="42">
@@ -3913,10 +3913,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277811</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4153,7 +4153,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432322</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934439</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>668.0368528135842</v>
+        <v>1670.546549887826</v>
       </c>
       <c r="C2" t="n">
-        <v>239.4551785508526</v>
+        <v>1232.404077071249</v>
       </c>
       <c r="D2" t="n">
-        <v>207.5857977657012</v>
+        <v>1200.534696286098</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>1170.800355484797</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>742.9329258940047</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>341.5350945172686</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048491</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048491</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134028</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1136.170759424404</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.083015301593</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.083015301593</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.083015301593</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.083015301593</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1904.594147312594</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2451.092933271188</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024245</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024245</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2620.246998024245</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>2620.246998024245</v>
       </c>
       <c r="V2" t="n">
-        <v>1114.499252887282</v>
+        <v>2620.246998024245</v>
       </c>
       <c r="W2" t="n">
-        <v>1113.68420233872</v>
+        <v>2619.431947475683</v>
       </c>
       <c r="X2" t="n">
-        <v>1098.582142958435</v>
+        <v>2505.13224407308</v>
       </c>
       <c r="Y2" t="n">
-        <v>1094.336423298492</v>
+        <v>2096.846120372733</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>558.5766849517777</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>452.12022378842</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>357.0299349349733</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>262.909520261927</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>179.5256818780886</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>94.14059214427243</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048491</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>78.46861312094251</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>403.0269380871548</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1051.538070098155</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1598.471923344954</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1715.644701439294</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1652.189263887677</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.010620218279</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1345.674073218247</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1146.556555280246</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>961.2338010134401</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>806.3663652523201</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>679.8805860315408</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.5057921365585</v>
+        <v>991.5609262627408</v>
       </c>
       <c r="C4" t="n">
-        <v>262.5057921365585</v>
+        <v>818.9992147459658</v>
       </c>
       <c r="D4" t="n">
-        <v>262.5057921365585</v>
+        <v>653.1212219474885</v>
       </c>
       <c r="E4" t="n">
-        <v>262.5057921365585</v>
+        <v>483.3632181982257</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>306.6561641599819</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>141.0648891858096</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>141.0648891858096</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048491</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>138.9846251251748</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>413.7430796963104</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>831.9529614642714</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>1291.436828645185</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1733.695631802829</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2153.36488102861</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2500.871774998952</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024245</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2598.829176729617</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2547.666711326938</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>2301.787264905393</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.091239336891</v>
+        <v>2023.354264158498</v>
       </c>
       <c r="V4" t="n">
-        <v>951.1357312073217</v>
+        <v>1736.398756028929</v>
       </c>
       <c r="W4" t="n">
-        <v>679.1093267936133</v>
+        <v>1464.37235161522</v>
       </c>
       <c r="X4" t="n">
-        <v>433.7175721270257</v>
+        <v>1218.980596948633</v>
       </c>
       <c r="Y4" t="n">
-        <v>262.5057921365585</v>
+        <v>991.5609262627408</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358.9883481097481</v>
+        <v>1744.308896547785</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1306.166423731208</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>870.2566389056528</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>436.481894063948</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W5" t="n">
-        <v>1612.716505715692</v>
+        <v>2189.95624607292</v>
       </c>
       <c r="X5" t="n">
-        <v>1193.574042295003</v>
+        <v>2174.854186692635</v>
       </c>
       <c r="Y5" t="n">
-        <v>785.2879185946559</v>
+        <v>2170.608467032693</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.603617826933</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>122.603617826933</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>122.603617826933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.603617826933</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1198.257367359924</v>
+        <v>1072.643441777775</v>
       </c>
       <c r="C8" t="n">
-        <v>934.9035480199891</v>
+        <v>1038.541373001602</v>
       </c>
       <c r="D8" t="n">
-        <v>498.9937631944335</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>65.21901835272874</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>41.39199280234053</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>41.39199280234053</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>41.39199280234053</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>40.97520342948054</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>476.2298908823984</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>865.4698218413267</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>865.4698218413267</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>865.4698218413267</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>865.4698218413267</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1372.537964281148</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1372.537964281148</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1879.60610672097</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2048.760171474027</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2048.760171474027</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2048.760171474027</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.760171474027</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.760171474027</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W8" t="n">
-        <v>1643.90471688506</v>
+        <v>1922.331195343315</v>
       </c>
       <c r="X8" t="n">
-        <v>1628.802657504775</v>
+        <v>1503.188731922625</v>
       </c>
       <c r="Y8" t="n">
-        <v>1220.516533804428</v>
+        <v>1094.902608222279</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.1469484207734</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>440.6904872574156</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>345.6001984039689</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>251.4797837309226</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>168.0959453470842</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>82.71085561326807</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>40.97520342948054</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>67.03887658993813</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>391.5972015561505</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>898.6653439959721</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1587.04218681395</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1704.214964908289</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1640.759527356672</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1510.580883687274</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1334.244336687242</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1135.126818749242</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>949.8040644824357</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>794.9366287213157</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.4508495005365</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>556.1219617829768</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C10" t="n">
-        <v>383.5602502662016</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D10" t="n">
-        <v>217.6822574677243</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E10" t="n">
-        <v>217.6822574677243</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>40.97520342948054</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>40.97520342948054</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>40.97520342948054</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>40.97520342948054</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>127.5548885941704</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>402.313343165306</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>402.313343165306</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>671.1324502559266</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1113.391253413571</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1533.060502639353</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1880.567396609694</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2048.760171474027</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2048.760171474027</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1889.518802772023</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1643.639356350478</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1552.314247711829</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>1265.35873958226</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>993.3323351685515</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>747.940580501964</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>747.940580501964</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1709.424544682825</v>
+        <v>2396.902224463591</v>
       </c>
       <c r="C11" t="n">
-        <v>1271.282071866248</v>
+        <v>1958.759751647014</v>
       </c>
       <c r="D11" t="n">
-        <v>835.3722870406928</v>
+        <v>1522.849966821459</v>
       </c>
       <c r="E11" t="n">
-        <v>835.3722870406928</v>
+        <v>1089.075221979754</v>
       </c>
       <c r="F11" t="n">
-        <v>763.4719801926828</v>
+        <v>661.2077923889615</v>
       </c>
       <c r="G11" t="n">
-        <v>362.0741488159467</v>
+        <v>259.8099610122254</v>
       </c>
       <c r="H11" t="n">
-        <v>72.94399425916295</v>
+        <v>72.94399425916309</v>
       </c>
       <c r="I11" t="n">
-        <v>72.94399425916295</v>
+        <v>72.94399425916309</v>
       </c>
       <c r="J11" t="n">
-        <v>508.1986817120808</v>
+        <v>508.1986817120809</v>
       </c>
       <c r="K11" t="n">
-        <v>508.1986817120808</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="L11" t="n">
-        <v>1200.555058455958</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="M11" t="n">
-        <v>1200.555058455958</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="N11" t="n">
-        <v>1200.555058455958</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="O11" t="n">
-        <v>2103.236987413099</v>
+        <v>2245.230902627402</v>
       </c>
       <c r="P11" t="n">
-        <v>2931.546862246495</v>
+        <v>3073.540777460798</v>
       </c>
       <c r="Q11" t="n">
-        <v>3478.04564820509</v>
+        <v>3620.039563419393</v>
       </c>
       <c r="R11" t="n">
-        <v>3647.199712958147</v>
+        <v>3647.199712958155</v>
       </c>
       <c r="S11" t="n">
-        <v>3563.547839141984</v>
+        <v>3647.199712958155</v>
       </c>
       <c r="T11" t="n">
-        <v>3563.547839141984</v>
+        <v>3647.199712958155</v>
       </c>
       <c r="U11" t="n">
-        <v>3304.325536459001</v>
+        <v>3647.199712958155</v>
       </c>
       <c r="V11" t="n">
-        <v>2941.708586392828</v>
+        <v>3647.199712958155</v>
       </c>
       <c r="W11" t="n">
-        <v>2536.853131803861</v>
+        <v>3242.344258369188</v>
       </c>
       <c r="X11" t="n">
-        <v>2117.710668383172</v>
+        <v>2823.201794948499</v>
       </c>
       <c r="Y11" t="n">
-        <v>1709.424544682825</v>
+        <v>2823.201794948499</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>579.1157392504557</v>
+        <v>579.1157392504559</v>
       </c>
       <c r="C12" t="n">
-        <v>472.659278087098</v>
+        <v>472.6592780870982</v>
       </c>
       <c r="D12" t="n">
-        <v>377.5689892336513</v>
+        <v>377.5689892336515</v>
       </c>
       <c r="E12" t="n">
-        <v>283.448574560605</v>
+        <v>283.4485745606052</v>
       </c>
       <c r="F12" t="n">
-        <v>200.0647361767666</v>
+        <v>200.0647361767668</v>
       </c>
       <c r="G12" t="n">
-        <v>114.6796464429505</v>
+        <v>114.6796464429506</v>
       </c>
       <c r="H12" t="n">
-        <v>72.94399425916295</v>
+        <v>72.94399425916309</v>
       </c>
       <c r="I12" t="n">
-        <v>72.94399425916295</v>
+        <v>99.00766741962069</v>
       </c>
       <c r="J12" t="n">
-        <v>72.94399425916295</v>
+        <v>423.5659923858331</v>
       </c>
       <c r="K12" t="n">
-        <v>72.94399425916295</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="L12" t="n">
-        <v>175.5901100544151</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="M12" t="n">
-        <v>175.5901100544151</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="N12" t="n">
-        <v>175.5901100544151</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="O12" t="n">
-        <v>1078.272039011556</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="P12" t="n">
-        <v>1078.272039011556</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="Q12" t="n">
         <v>1619.010977643632</v>
@@ -5148,7 +5148,7 @@
         <v>1672.728318186355</v>
       </c>
       <c r="T12" t="n">
-        <v>1542.549674516956</v>
+        <v>1542.549674516957</v>
       </c>
       <c r="U12" t="n">
         <v>1366.213127516925</v>
@@ -5157,13 +5157,13 @@
         <v>1167.095609578924</v>
       </c>
       <c r="W12" t="n">
-        <v>981.7728553121181</v>
+        <v>981.7728553121183</v>
       </c>
       <c r="X12" t="n">
-        <v>826.9054195509981</v>
+        <v>826.9054195509983</v>
       </c>
       <c r="Y12" t="n">
-        <v>700.4196403302188</v>
+        <v>700.4196403302191</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.6792003787791</v>
+        <v>1152.002154871045</v>
       </c>
       <c r="C13" t="n">
-        <v>769.1174888620041</v>
+        <v>979.44044335427</v>
       </c>
       <c r="D13" t="n">
-        <v>603.2394960635268</v>
+        <v>813.5624505557926</v>
       </c>
       <c r="E13" t="n">
-        <v>433.481492314264</v>
+        <v>643.8044468065295</v>
       </c>
       <c r="F13" t="n">
-        <v>256.7744382760202</v>
+        <v>467.0973927682858</v>
       </c>
       <c r="G13" t="n">
-        <v>91.18316330184767</v>
+        <v>301.5061177941133</v>
       </c>
       <c r="H13" t="n">
-        <v>72.94399425916295</v>
+        <v>161.6039434844878</v>
       </c>
       <c r="I13" t="n">
-        <v>72.94399425916295</v>
+        <v>72.94399425916309</v>
       </c>
       <c r="J13" t="n">
-        <v>159.5236794238528</v>
+        <v>159.5236794238529</v>
       </c>
       <c r="K13" t="n">
-        <v>434.2821339949884</v>
+        <v>434.2821339949885</v>
       </c>
       <c r="L13" t="n">
-        <v>852.4920157629494</v>
+        <v>852.4920157629496</v>
       </c>
       <c r="M13" t="n">
-        <v>1311.975882943862</v>
+        <v>1311.975882943863</v>
       </c>
       <c r="N13" t="n">
         <v>1754.234686101507</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.903935327288</v>
+        <v>2173.903935327289</v>
       </c>
       <c r="P13" t="n">
-        <v>2521.41082929763</v>
+        <v>2521.410829297631</v>
       </c>
       <c r="Q13" t="n">
         <v>2689.603604161963</v>
@@ -5224,25 +5224,25 @@
         <v>2689.603604161963</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.603604161963</v>
+        <v>2530.36223545996</v>
       </c>
       <c r="T13" t="n">
-        <v>2443.724157740418</v>
+        <v>2375.614111485789</v>
       </c>
       <c r="U13" t="n">
-        <v>2165.291156993523</v>
+        <v>2375.614111485789</v>
       </c>
       <c r="V13" t="n">
-        <v>1878.335648863954</v>
+        <v>2088.65860335622</v>
       </c>
       <c r="W13" t="n">
-        <v>1606.309244450246</v>
+        <v>1816.632198942511</v>
       </c>
       <c r="X13" t="n">
-        <v>1360.917489783658</v>
+        <v>1571.240444275924</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.497819097766</v>
+        <v>1343.820773590032</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651787</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009655</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.07304516795</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771579</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004218</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436398</v>
+        <v>102.6776296436381</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5282,46 +5282,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="15">
@@ -5334,16 +5334,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D15" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E15" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F15" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G15" t="n">
         <v>143.9964924545671</v>
@@ -5352,25 +5352,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.756877347711</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309358</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D16" t="n">
-        <v>614.3171730324586</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831958</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>242.163014580405</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5434,7 +5434,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K16" t="n">
         <v>463.598980006605</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050032</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303137</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759859</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.992967093272</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167954</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771613</v>
+        <v>793.20561557716</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004252</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436414</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5522,43 +5522,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5589,16 +5589,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477109</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309358</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832885</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5762,40 +5762,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5929,31 +5929,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173584</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173584</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>645.8766848899143</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130894</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.801834709349</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="29">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6892,7 +6892,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
         <v>780.1951658309357</v>
@@ -7151,25 +7151,25 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197253</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7178,46 +7178,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387604</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673519</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397569</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.66490829367</v>
+        <v>905.6649082936669</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080689</v>
+        <v>756.1866229080658</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716824</v>
+        <v>602.8283265716791</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463148</v>
+        <v>442.5209799463116</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850187</v>
+        <v>293.3294123850155</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882688</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581788</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758677</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823633</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856844</v>
+        <v>925.3347848856841</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
         <v>2294.966764156103</v>
@@ -7357,25 +7357,25 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290619</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.47362528195</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947932</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231239</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230406</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976695</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.24582370368</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7421,16 +7421,16 @@
         <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>3069.845642387189</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>4050.025308957496</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790891</v>
@@ -7448,7 +7448,7 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
@@ -7491,22 +7491,22 @@
         <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024877</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024877</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024877</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024877</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024877</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="Q42" t="n">
         <v>1643.633687060287</v>
@@ -7546,22 +7546,22 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936669</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080655</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716791</v>
+        <v>602.8283265716789</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463116</v>
+        <v>442.5209799463112</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850155</v>
+        <v>293.329412385015</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I43" t="n">
         <v>97.56670367581783</v>
@@ -7591,7 +7591,7 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7600,7 +7600,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
@@ -7652,22 +7652,22 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="N44" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O44" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P44" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q44" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790891</v>
@@ -7728,22 +7728,22 @@
         <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="Q45" t="n">
         <v>1643.633687060287</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936665</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080654</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716788</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463111</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850149</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882656</v>
       </c>
       <c r="I46" t="n">
         <v>97.56670367581783</v>
@@ -7828,28 +7828,28 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
         <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060613</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>121.1234907850401</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.0617495060615</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060612</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>6.257489509821426</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>120.581033358882</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>393.1716474332609</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>512.1900428685067</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685067</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685067</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920768</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685067</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,10 +8614,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>271.5344516066875</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8690,10 +8690,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>699.3498754988658</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395367</v>
+        <v>911.7999282395388</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>27.43449448359752</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,16 +8763,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>103.6829452477294</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>911.7999282395368</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N14" t="n">
-        <v>60.59188538505214</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,19 +9237,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.29797569827247</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -10826,7 +10826,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763903</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497093</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>633.9535283307237</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11078,10 +11078,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497093</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11300,7 +11300,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497093</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>352.4074515153548</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>101.2415459256841</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>120.4463752142713</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>90.22000922290073</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.943445404606337e-13</v>
+        <v>1.38133948723862e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>131.2385495991671</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.157176012747723e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>227.3655273957968</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,16 +24175,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627213</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>34.67467827192598</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>107.259235827648</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-2.486899575160351e-12</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>8.171241461241152e-13</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>773995.4444214187</v>
+        <v>788194.9592587219</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>773995.4444214187</v>
+        <v>788961.2468906195</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>779403.7600881172</v>
+        <v>788961.2468906195</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632081.6157709523</v>
+        <v>632081.6157709531</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>805062.4172671196</v>
+        <v>805062.4172671195</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>805062.4172671199</v>
+        <v>805062.4172671195</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>815061.7114465132</v>
+        <v>815061.7114465131</v>
       </c>
     </row>
     <row r="15">
@@ -26314,16 +26314,16 @@
         <v>201055.2449589031</v>
       </c>
       <c r="C2" t="n">
-        <v>201055.2449589032</v>
+        <v>201055.2449589031</v>
       </c>
       <c r="D2" t="n">
         <v>201055.2449589032</v>
       </c>
       <c r="E2" t="n">
-        <v>155120.1120808049</v>
+        <v>155120.1120808051</v>
       </c>
       <c r="F2" t="n">
-        <v>197571.5940515071</v>
+        <v>197571.594051507</v>
       </c>
       <c r="G2" t="n">
         <v>197571.5940515071</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>219526.2586797198</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4023.346928948679</v>
       </c>
       <c r="D3" t="n">
-        <v>27302.57079477422</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119314.7203543114</v>
+        <v>72938.04361534426</v>
       </c>
       <c r="F3" t="n">
-        <v>105000.482754056</v>
+        <v>105000.4827540553</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>171392.9763877639</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3205.121347374932</v>
       </c>
       <c r="L3" t="n">
-        <v>22245.2272640125</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99584.3818740022</v>
+        <v>60876.72976950161</v>
       </c>
       <c r="N3" t="n">
-        <v>88373.14763716084</v>
+        <v>88373.14763716026</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>167346.9247704305</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>191253.6420962578</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>63940.95018941453</v>
+        <v>63940.95018941463</v>
       </c>
       <c r="F4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
-        <v>94325.77438500374</v>
+        <v>94325.77438500368</v>
       </c>
       <c r="O4" t="n">
         <v>94325.77438500366</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>73455.35436996853</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>64768.7546064052</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>55437.43563696383</v>
+        <v>55437.43563696395</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,7 +26503,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="O5" t="n">
         <v>75515.6147260897</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-206521.8166798959</v>
+        <v>-259273.2928612157</v>
       </c>
       <c r="C6" t="n">
-        <v>-64330.51602018595</v>
+        <v>-42443.71479136166</v>
       </c>
       <c r="D6" t="n">
-        <v>-82269.72253853407</v>
+        <v>-38420.36786241295</v>
       </c>
       <c r="E6" t="n">
-        <v>-83572.99409988495</v>
+        <v>-37502.55158010504</v>
       </c>
       <c r="F6" t="n">
-        <v>-66586.69877738431</v>
+        <v>-66609.92311676616</v>
       </c>
       <c r="G6" t="n">
-        <v>38413.78397667172</v>
+        <v>38390.55963728901</v>
       </c>
       <c r="H6" t="n">
-        <v>38413.78397667175</v>
+        <v>38390.55963728909</v>
       </c>
       <c r="I6" t="n">
-        <v>38413.78397667174</v>
+        <v>38390.55963728908</v>
       </c>
       <c r="J6" t="n">
-        <v>-72600.68136831844</v>
+        <v>-133002.4167504748</v>
       </c>
       <c r="K6" t="n">
-        <v>38413.78397667174</v>
+        <v>35185.43828991416</v>
       </c>
       <c r="L6" t="n">
-        <v>16168.55671265924</v>
+        <v>38390.55963728911</v>
       </c>
       <c r="M6" t="n">
-        <v>-61170.59789733046</v>
+        <v>-22486.17013221249</v>
       </c>
       <c r="N6" t="n">
-        <v>-57159.29178935112</v>
+        <v>-57159.29178935055</v>
       </c>
       <c r="O6" t="n">
-        <v>31213.85584780984</v>
+        <v>31213.85584780973</v>
       </c>
       <c r="P6" t="n">
         <v>31213.85584780975</v>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
         <v>16.23571033874737</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060613</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>512.1900428685067</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>911.7999282395368</v>
+        <v>911.7999282395386</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060613</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.45345710179561</v>
       </c>
       <c r="D4" t="n">
-        <v>87.89418534840235</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.6098853710301</v>
+        <v>244.2847216316817</v>
       </c>
       <c r="F4" t="n">
-        <v>366.4605751452085</v>
+        <v>366.460575145206</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060613</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179561</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840235</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710301</v>
+        <v>244.2847216316817</v>
       </c>
       <c r="N4" t="n">
-        <v>307.783867708186</v>
+        <v>307.7838677081839</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060613</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179561</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840235</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710301</v>
+        <v>244.2847216316817</v>
       </c>
       <c r="N4" t="n">
-        <v>366.4605751452085</v>
+        <v>366.460575145206</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>281.1200448157202</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>301.7943324179059</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>106.9981142663305</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>55.64581178847027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>196.5432550408245</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>44.33888453491807</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27679,10 +27679,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.5633111792702</v>
+        <v>144.1344859240867</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>173.0407669418751</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>309.7003062363596</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>185.2368131871632</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.547473508864641e-12</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874747</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874765</v>
       </c>
     </row>
     <row r="42">
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060613</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>121.1234907850401</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.0617495060615</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060612</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>6.257489509821426</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>120.581033358882</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>393.1716474332609</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>512.1900428685067</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685067</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685067</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920768</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685067</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35334,19 +35334,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>271.5344516066875</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>446.7260637956007</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,10 +35410,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>699.3498754988658</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35422,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395367</v>
+        <v>911.7999282395388</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>27.43449448359752</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>103.6829452477294</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>911.7999282395368</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N14" t="n">
-        <v>60.59188538505214</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35890,10 +35890,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.29797569827247</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36297,7 +36297,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821584</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763903</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497093</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>103.6899377778281</v>
       </c>
       <c r="K40" t="n">
-        <v>293.769502834844</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L40" t="n">
-        <v>438.669934346789</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
         <v>480.360828703306</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
         <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.1274021209006</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,19 +37789,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>633.9535283307237</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497093</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,10 +37874,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -38020,7 +38020,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497093</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
